--- a/xlsx/通货膨胀_intext.xlsx
+++ b/xlsx/通货膨胀_intext.xlsx
@@ -15,693 +15,675 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>通货膨胀</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9%E7%8E%87</t>
+  </si>
+  <si>
+    <t>通货膨胀率</t>
+  </si>
+  <si>
+    <t>政策_政策_经济政策_通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%83%B9</t>
+  </si>
+  <si>
+    <t>物价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>购买力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
+  </si>
+  <si>
+    <t>供给</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E5%88%9B%E9%80%A0</t>
+  </si>
+  <si>
+    <t>货币创造</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E8%B2%B6%E5%80%BC</t>
+  </si>
+  <si>
+    <t>货币贬值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>消费者物价指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GDP%E5%B9%B3%E5%87%8F%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>GDP平减指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>货币主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>凯因斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>奥地利经济学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%BE%9B%E7%B5%A6</t>
+  </si>
+  <si>
+    <t>货币供给</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%80%A7%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
+  </si>
+  <si>
+    <t>恶性通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%84%B9</t>
+  </si>
+  <si>
+    <t>停滞性通胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>政治经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E7%B7%8A%E7%B8%AE</t>
+  </si>
+  <si>
+    <t>通货紧缩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
+  </si>
+  <si>
+    <t>购买力平价</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>生产者物价指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
+  </si>
+  <si>
+    <t>金本位</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/GDP%E5%B9%B3%E6%B8%9B%E6%8C%87%E6%95%B8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
+  </si>
+  <si>
+    <t>国内生产总值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国联邦储备局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>约翰·梅纳德·凯恩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B2%98%E6%80%A7%E4%BB%B7%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>粘性价格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
+  </si>
+  <si>
+    <t>破产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%A1%B0%E9%80%80</t>
+  </si>
+  <si>
+    <t>经济衰退</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>经济萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2%E7%9A%84%E6%99%82%E9%96%93%E5%83%B9%E5%80%BC</t>
+  </si>
+  <si>
+    <t>金钱的时间价值</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E5%82%B5</t>
+  </si>
+  <si>
+    <t>负债</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E9%A4%98%E9%A1%8D</t>
+  </si>
+  <si>
+    <t>贸易馀额</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
+  </si>
+  <si>
+    <t>汇率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%9B%E8%8B%A6%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>痛苦指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E5%A5%A7%E8%82%AF</t>
+  </si>
+  <si>
+    <t>亚瑟·奥肯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>失业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
+  </si>
+  <si>
+    <t>停滞性通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>新古典经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
+  </si>
+  <si>
+    <t>财政</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
+  </si>
+  <si>
+    <t>经济成长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>货币政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>米尔顿·弗里德曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%AF%E6%81%A9%E6%96%AF%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>新凯恩斯经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E6%9B%B2%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>菲利普斯曲线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
+  </si>
+  <si>
+    <t>失业率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>凯恩斯主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%82%A8%E5%A4%87%E7%B3%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E6%B2%83%E5%B0%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>保罗·沃尔克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
+  </si>
+  <si>
+    <t>玛格利特·撒切尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%80%A7%E5%A4%B1%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>结构性失业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
+  </si>
+  <si>
+    <t>黑死病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%A1%BF%E6%A3%AE%E6%9E%97%E5%8D%8F%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>布雷顿森林协定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%AD%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>供给学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国联邦准备理事会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>欧洲中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%B4%A2%E6%B4%9B</t>
+  </si>
+  <si>
+    <t>罗伯特·索洛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A8%E5%93%81</t>
+  </si>
+  <si>
+    <t>日用品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%BC%80%E5%B8%82%E5%9C%BA%E6%93%8D%E4%BD%9C</t>
+  </si>
+  <si>
+    <t>公开市场操作</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
+  </si>
+  <si>
+    <t>理查德·尼克松</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
+  </si>
+  <si>
+    <t>维基词典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80%E7%8E%87%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国通货膨胀率列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E7%B4%A7%E7%BC%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>总体经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%BE%9B%E7%BB%99</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%83%B9%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>物价革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
+  </si>
+  <si>
+    <t>无条件基本收入</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/72%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>72律</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Inflation_tax</t>
+  </si>
+  <si>
+    <t>en-Inflation tax</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%91%84%E5%B9%A3%E7%A8%85</t>
+  </si>
+  <si>
+    <t>铸币税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Macroeconomics</t>
+  </si>
+  <si>
+    <t>Template talk-Macroeconomics</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>宏观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BB%A3%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>第二代新古典主义经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BB%A3%E6%96%B0%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>第二代新凯恩斯主义经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>斯德哥尔摩学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>供给面学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>淡水学派与咸水学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>发展经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
+  </si>
+  <si>
+    <t>经济增长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>货币经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8F%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
+  </si>
+  <si>
+    <t>黏性 (经济学)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%A1%B0%E9%80%80</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>财政政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>雷根经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>IS-LM模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7-%E5%A4%9A%E9%A9%AC%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>哈罗德-多马模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%B4%9B%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>索洛模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E9%BD%90-%E5%8D%A1%E6%96%AF-%E5%BA%93%E6%99%AE%E6%9B%BC%E6%96%AF%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>拉姆齐-卡斯-库普曼斯模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E4%BB%A3%E5%B0%94-%E5%BC%97%E8%8E%B1%E6%98%8E%E6%A8%A1%E5%9E%8B</t>
+  </si>
+  <si>
+    <t>蒙代尔-弗莱明模型</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%88%B4%E8%92%99%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>彼得·戴蒙德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B4%B9%E5%B0%94%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>马丁·费尔德斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>弗里德里希·哈耶克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
+  </si>
+  <si>
+    <t>劳伦斯·克莱因</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
+  </si>
+  <si>
+    <t>小罗伯特·卢卡斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%AB%98%E5%88%A9%C2%B7%E6%9B%BC%E6%98%86</t>
+  </si>
+  <si>
+    <t>格里高利·曼昆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E8%B4%B9%E5%B0%94%E6%99%AE%E6%96%AF</t>
+  </si>
+  <si>
+    <t>埃德蒙·费尔普斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%99%AE%E9%9B%B7%E6%96%AF%E7%A7%91%E7%89%B9</t>
+  </si>
+  <si>
+    <t>爱德华·普雷斯科特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
+  </si>
+  <si>
+    <t>琼·罗宾逊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
+  </si>
+  <si>
+    <t>托马斯·萨金特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
+  </si>
+  <si>
+    <t>瑞士历史辞典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9%E7%8E%87</t>
-  </si>
-  <si>
-    <t>通貨膨脹率</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_通货膨胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>貨幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%83%B9</t>
-  </si>
-  <si>
-    <t>物價</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>購買力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82</t>
-  </si>
-  <si>
-    <t>需求</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99</t>
-  </si>
-  <si>
-    <t>供给</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E5%88%9B%E9%80%A0</t>
-  </si>
-  <si>
-    <t>货币创造</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E8%B2%B6%E5%80%BC</t>
-  </si>
-  <si>
-    <t>貨幣貶值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>消費者物價指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GDP%E5%B9%B3%E5%87%8F%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>GDP平减指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>貨幣主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E5%9B%A0%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>凱因斯主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>奧地利經濟學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E4%BE%9B%E7%B5%A6</t>
-  </si>
-  <si>
-    <t>貨幣供給</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%80%A7%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
-  </si>
-  <si>
-    <t>恶性通货膨胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%84%B9</t>
-  </si>
-  <si>
-    <t>停滯性通脹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>政治经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E7%B7%8A%E7%B8%AE</t>
-  </si>
-  <si>
-    <t>通貨緊縮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7</t>
-  </si>
-  <si>
-    <t>购买力平价</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%94%A2%E8%80%85%E7%89%A9%E5%83%B9%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>生產者物價指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9C%AC%E4%BD%8D</t>
-  </si>
-  <si>
-    <t>金本位</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/GDP%E5%B9%B3%E6%B8%9B%E6%8C%87%E6%95%B8</t>
-  </si>
-  <si>
-    <t>GDP平減指數</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC</t>
-  </si>
-  <si>
-    <t>国内生产总值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國聯邦儲備局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%A2%85%E7%BA%B3%E5%BE%B7%C2%B7%E5%87%AF%E6%81%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>约翰·梅纳德·凯恩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%98%E6%80%A7%E4%BB%B7%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>粘性价格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
-  </si>
-  <si>
-    <t>破產</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%A1%B0%E9%80%80</t>
-  </si>
-  <si>
-    <t>經濟衰退</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>经济萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2%E7%9A%84%E6%99%82%E9%96%93%E5%83%B9%E5%80%BC</t>
-  </si>
-  <si>
-    <t>金錢的時間價值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A0%E5%82%B5</t>
-  </si>
-  <si>
-    <t>負債</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E9%A4%98%E9%A1%8D</t>
-  </si>
-  <si>
-    <t>貿易餘額</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E7%8E%87</t>
-  </si>
-  <si>
-    <t>匯率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%9B%E8%8B%A6%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>痛苦指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%91%9F%C2%B7%E5%A5%A7%E8%82%AF</t>
-  </si>
-  <si>
-    <t>亞瑟·奧肯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>失業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E6%BB%AF%E6%80%A7%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
-  </si>
-  <si>
-    <t>停滯性通貨膨脹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>新古典經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF</t>
-  </si>
-  <si>
-    <t>财政</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>货币主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
-  </si>
-  <si>
-    <t>經濟成長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>貨幣政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%B0%94%E9%A1%BF%C2%B7%E5%BC%97%E9%87%8C%E5%BE%B7%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>米尔顿·弗里德曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%87%AF%E6%81%A9%E6%96%AF%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>新凯恩斯经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E6%9B%B2%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>菲利普斯曲线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E7%8E%87</t>
-  </si>
-  <si>
-    <t>失業率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>凯恩斯主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
-  </si>
-  <si>
-    <t>國內生產總值</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%82%A8%E5%A4%87%E7%B3%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国联邦储备系统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E6%B2%83%E5%B0%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>保罗·沃尔克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
-  </si>
-  <si>
-    <t>玛格利特·撒切尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%80%A7%E5%A4%B1%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>結構性失業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
-  </si>
-  <si>
-    <t>黑死病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%9B%B7%E9%A1%BF%E6%A3%AE%E6%9E%97%E5%8D%8F%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>布雷顿森林协定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E5%AD%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>供给学派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%BA%96%E5%82%99%E7%90%86%E4%BA%8B%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國聯邦準備理事會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>货币政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>歐洲中央銀行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
-  </si>
-  <si>
-    <t>利率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%B4%A2%E6%B4%9B</t>
-  </si>
-  <si>
-    <t>罗伯特·索洛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A8%E5%93%81</t>
-  </si>
-  <si>
-    <t>日用品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%BC%80%E5%B8%82%E5%9C%BA%E6%93%8D%E4%BD%9C</t>
-  </si>
-  <si>
-    <t>公开市场操作</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
-  </si>
-  <si>
-    <t>理查德·尼克松</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E8%A9%9E%E5%85%B8</t>
-  </si>
-  <si>
-    <t>維基詞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80%E7%8E%87%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国通货膨胀率列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E7%B4%A7%E7%BC%A9</t>
-  </si>
-  <si>
-    <t>通货紧缩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>總體經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E4%BE%9B%E7%BB%99</t>
-  </si>
-  <si>
-    <t>货币供给</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%83%B9%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>物價革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A2%9D%E4%BB%B6%E5%9F%BA%E6%9C%AC%E6%94%B6%E5%85%A5</t>
-  </si>
-  <si>
-    <t>無條件基本收入</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/72%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>72律</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Inflation_tax</t>
-  </si>
-  <si>
-    <t>en-Inflation tax</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%91%84%E5%B9%A3%E7%A8%85</t>
-  </si>
-  <si>
-    <t>鑄幣稅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Macroeconomics</t>
-  </si>
-  <si>
-    <t>Template talk-Macroeconomics</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>宏观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BB%A3%E6%96%B0%E5%8F%A4%E5%85%B8%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>第二代新古典主义经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%BB%A3%E6%96%B0%E5%87%AF%E6%81%A9%E6%96%AF%E4%B8%BB%E4%B9%89%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>第二代新凯恩斯主义经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>斯德哥爾摩學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>供給面學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%A1%E6%B0%B4%E5%AD%A6%E6%B4%BE%E4%B8%8E%E5%92%B8%E6%B0%B4%E5%AD%A6%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>淡水学派与咸水学派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>发展经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%A2%9E%E9%95%BF</t>
-  </si>
-  <si>
-    <t>经济增长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>貨幣經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8F%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
-  </si>
-  <si>
-    <t>黏性 (经济学)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%A1%B0%E9%80%80</t>
-  </si>
-  <si>
-    <t>经济衰退</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>失业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%A2%E6%94%BF%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>财政政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>雷根經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>IS-LM模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BD%97%E5%BE%B7-%E5%A4%9A%E9%A9%AC%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>哈罗德-多马模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%B4%9B%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>索洛模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A7%86%E9%BD%90-%E5%8D%A1%E6%96%AF-%E5%BA%93%E6%99%AE%E6%9B%BC%E6%96%AF%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>拉姆齐-卡斯-库普曼斯模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E4%BB%A3%E5%B0%94-%E5%BC%97%E8%8E%B1%E6%98%8E%E6%A8%A1%E5%9E%8B</t>
-  </si>
-  <si>
-    <t>蒙代尔-弗莱明模型</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%88%B4%E8%92%99%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>彼得·戴蒙德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B4%B9%E5%B0%94%E5%BE%B7%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>马丁·费尔德斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>弗里德里希·哈耶克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
-  </si>
-  <si>
-    <t>勞倫斯·克萊因</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
-  </si>
-  <si>
-    <t>小罗伯特·卢卡斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E9%AB%98%E5%88%A9%C2%B7%E6%9B%BC%E6%98%86</t>
-  </si>
-  <si>
-    <t>格里高利·曼昆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E8%92%99%C2%B7%E8%B4%B9%E5%B0%94%E6%99%AE%E6%96%AF</t>
-  </si>
-  <si>
-    <t>埃德蒙·费尔普斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E6%99%AE%E9%9B%B7%E6%96%AF%E7%A7%91%E7%89%B9</t>
-  </si>
-  <si>
-    <t>爱德华·普雷斯科特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
-  </si>
-  <si>
-    <t>瓊·羅賓遜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
-  </si>
-  <si>
-    <t>托马斯·萨金特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
-  </si>
-  <si>
-    <t>亚当·斯密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
-  </si>
-  <si>
-    <t>瑞士歷史辭典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1739,7 +1721,7 @@
         <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1765,10 +1747,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1794,10 +1776,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1823,10 +1805,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>15</v>
@@ -1852,10 +1834,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1881,10 +1863,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1910,10 +1892,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1939,10 +1921,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1968,10 +1950,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1997,10 +1979,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2026,10 +2008,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2055,10 +2037,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2084,10 +2066,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -2113,10 +2095,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2142,10 +2124,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>27</v>
@@ -2171,10 +2153,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2200,10 +2182,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2229,10 +2211,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2258,10 +2240,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -2287,10 +2269,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -2316,10 +2298,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2374,10 +2356,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2403,10 +2385,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2432,10 +2414,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2461,10 +2443,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2490,10 +2472,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G50" t="n">
         <v>15</v>
@@ -2519,10 +2501,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
         <v>75</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2548,10 +2530,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G52" t="n">
         <v>20</v>
@@ -2635,10 +2617,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G55" t="n">
         <v>11</v>
@@ -2664,10 +2646,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2693,10 +2675,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2722,10 +2704,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2751,10 +2733,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2780,10 +2762,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2809,10 +2791,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2838,10 +2820,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2867,10 +2849,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2896,10 +2878,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2925,10 +2907,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2954,10 +2936,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2983,10 +2965,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3012,10 +2994,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>7</v>
@@ -3041,10 +3023,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3070,10 +3052,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3099,10 +3081,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3128,10 +3110,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3157,10 +3139,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3186,10 +3168,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3215,10 +3197,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3273,10 +3255,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3302,10 +3284,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3331,10 +3313,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3360,10 +3342,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3389,10 +3371,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G81" t="n">
         <v>12</v>
@@ -3418,10 +3400,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3447,10 +3429,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3476,10 +3458,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3505,10 +3487,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3534,10 +3516,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3563,10 +3545,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G87" t="n">
         <v>9</v>
@@ -3592,10 +3574,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G88" t="n">
         <v>5</v>
@@ -3621,10 +3603,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F89" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3650,10 +3632,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F90" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3679,10 +3661,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3708,10 +3690,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3737,10 +3719,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3766,10 +3748,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F94" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3795,10 +3777,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3824,10 +3806,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3882,10 +3864,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3911,10 +3893,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3940,10 +3922,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -3969,10 +3951,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3998,10 +3980,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4027,10 +4009,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4056,10 +4038,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4085,10 +4067,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4114,10 +4096,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4143,10 +4125,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4172,10 +4154,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4201,10 +4183,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4230,10 +4212,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4259,10 +4241,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" t="s">
         <v>53</v>
-      </c>
-      <c r="F111" t="s">
-        <v>54</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4288,10 +4270,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4317,10 +4299,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F113" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4346,10 +4328,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F114" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4375,10 +4357,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4404,10 +4386,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F116" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4433,10 +4415,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F117" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4462,10 +4444,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F118" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4491,10 +4473,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F119" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4520,10 +4502,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F120" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -4549,10 +4531,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F121" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4578,10 +4560,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F122" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4607,10 +4589,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4619,6 +4601,64 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>220</v>
+      </c>
+      <c r="F124" t="s">
+        <v>221</v>
+      </c>
+      <c r="G124" t="n">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>124</v>
+      </c>
+      <c r="E125" t="s">
+        <v>220</v>
+      </c>
+      <c r="F125" t="s">
+        <v>222</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>4</v>
+      </c>
+      <c r="I125" t="n">
         <v>3</v>
       </c>
     </row>
